--- a/Проверки 1 1 в.3.xlsx
+++ b/Проверки 1 1 в.3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="135">
   <si>
     <t>Графа</t>
   </si>
@@ -721,6 +721,9 @@
       </rPr>
       <t>ОКПО отчитывающейся организации</t>
     </r>
+  </si>
+  <si>
+    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), не ОКПО отчитывающейся организации</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1146,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2155,7 @@
         <v>104</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>57</v>

--- a/Проверки 1 1 в.3.xlsx
+++ b/Проверки 1 1 в.3.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="форма 1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'форма 1.1'!$A$1:$H$59</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="159">
   <si>
     <t>Графа</t>
   </si>
@@ -91,9 +91,6 @@
     <t>«Заполните форму 1.5»</t>
   </si>
   <si>
-    <t>«В графе 19 необходимо указать ОКПО подрядной организации»</t>
-  </si>
-  <si>
     <t>«В отчетах не найдены сведения о снятии с учета учетной единицы для разукомплектования. Проверьте правильность выбранного кода операции»</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>"Перечень радионуклидов не соответствует справочным данным"</t>
   </si>
   <si>
-    <t>Радионуклиды должны быть разделены точной с запятой.</t>
-  </si>
-  <si>
     <t>Суммарная активность, Бк</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
   </si>
   <si>
     <t>Код ОКПО организации изготовителя</t>
-  </si>
-  <si>
-    <t>Код операции 11, 58</t>
   </si>
   <si>
     <t>"Проверьте код ОКПО организации-изготовителя"</t>
@@ -333,9 +324,6 @@
     <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, из ОКСМ</t>
   </si>
   <si>
-    <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76</t>
-  </si>
-  <si>
     <t>Код ОКПО отчитывающейся организации</t>
   </si>
   <si>
@@ -384,9 +372,6 @@
     <t>"Дата выпуска не может быть позже даты операции"</t>
   </si>
   <si>
-    <t>«Формат ввода данных не соответствует приказу», «Необходимо добавить примечание»</t>
-  </si>
-  <si>
     <t>Из возможных значений</t>
   </si>
   <si>
@@ -445,7 +430,7 @@
   </si>
   <si>
     <r>
-      <t>Не пустое поле. Если несколько - разделение через точку с запятой</t>
+      <t>21, 22, 25, 27, 28, 29,41, 42, 43, 46, 53, 54</t>
     </r>
     <r>
       <rPr>
@@ -457,12 +442,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, 10, 11, 12, </t>
+      <t>, 61</t>
     </r>
     <r>
       <rPr>
@@ -472,7 +452,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">15, </t>
+      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка наличия кода операции 46, графы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -482,7 +479,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">17, 18, 21, 22, 25, </t>
+      <t xml:space="preserve">, 6, </t>
     </r>
     <r>
       <rPr>
@@ -492,7 +489,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">27, 28, 29, 31, 32, 35, </t>
+      <t xml:space="preserve">10, 11, 12, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
     </r>
     <r>
       <rPr>
@@ -502,7 +511,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">37, 38, 39, 41, 42, 43, </t>
+      <t xml:space="preserve"> должны совпадать. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вещественные </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>положительные числа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если в графе 6 указан </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>один радионукли</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>д, то берется для него значение МЗА из таблицы и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ЗРИ не является объектом учета СГУК РВ и РАО»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если в графе 6 указано </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>несколько радионуклидов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, без указания процентной доли каждого радионуклида по активности, то из таблицы берется значение наименьшего МЗА, и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ЗРИ не является объектом учета СГУК РВ и РАО»</t>
+    </r>
+  </si>
+  <si>
+    <t>Из возможных значений. При коде операции 11 должено быть 9.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -512,7 +600,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">48, </t>
+      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, 48, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46,47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Код операции не может быть использован в форме 1.1</t>
     </r>
     <r>
       <rPr>
@@ -522,7 +637,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">53, 54, </t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В графе 19 код ОКПО отчитывающейся организации. </t>
+  </si>
+  <si>
+    <t>«В графе 19 необходимо указать код ОКПО своей организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если зарядка/разрядка осуществлялась силами организации, следует использовать код операции 53</t>
     </r>
     <r>
       <rPr>
@@ -532,7 +669,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">58, </t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
     </r>
     <r>
       <rPr>
@@ -542,7 +695,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Радионуклиды должны быть разделены точкой с запятой</t>
     </r>
     <r>
       <rPr>
@@ -552,12 +721,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>21, 22, 25, 27, 28, 29,41, 42, 43, 46, 53, 54</t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа должна быть заполнена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если несколько - разделение через точку с запятой</t>
     </r>
     <r>
       <rPr>
@@ -569,7 +764,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 61</t>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>«Укажите количество ЗРИ</t>
     </r>
     <r>
       <rPr>
@@ -579,24 +790,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка наличия кода операции 46, графы </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 10 ОКПО отчитывающейся организации</t>
+  </si>
+  <si>
+    <r>
+      <t>Код операции 11,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t xml:space="preserve"> 58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО организации изготовителя</t>
     </r>
     <r>
       <rPr>
@@ -606,7 +835,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 6, </t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
     </r>
     <r>
       <rPr>
@@ -616,19 +861,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">10, 11, 12, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>13</t>
+      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
     </r>
     <r>
       <rPr>
@@ -638,78 +887,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> должны совпадать. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Вещественные </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>положительные числа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Если в графе 6 указан </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>один радионукли</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>д, то берется для него значение МЗА из таблицы и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ЗРИ не является объектом учета СГУК РВ и РАО»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Если в графе 6 указано </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>несколько радионуклидов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, без указания процентной доли каждого радионуклида по активности, то из таблицы берется значение наименьшего МЗА, и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ЗРИ не является объектом учета СГУК РВ и РАО»</t>
-    </r>
-  </si>
-  <si>
-    <t>Из возможных значений. При коде операции 11 должено быть 9.</t>
-  </si>
-  <si>
-    <r>
-      <t>В графе 10</t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
     </r>
     <r>
       <rPr>
@@ -719,23 +913,238 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ОКПО отчитывающейся организации</t>
-    </r>
-  </si>
-  <si>
-    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), не ОКПО отчитывающейся организации</t>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
+  </si>
+  <si>
+    <t>Код ОКПО НЕ отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
+  </si>
+  <si>
+    <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>выбор из ОКСМ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо добавить примечание»</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t>11, 12, 15, 28, 38, 41, 48, 63, 64, 65, 73, 85, 81, 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
+  </si>
+  <si>
+    <t>"Уточните правообладателя ЗРИ"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,8 +1169,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,12 +1232,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,12 +1263,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,20 +1277,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1141,12 +1611,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H55"/>
+  <sheetPr codeName="Лист1" filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,14 +1629,14 @@
     <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="66.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1176,13 +1648,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1218,21 +1690,21 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1276,7 +1748,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1320,7 +1792,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1332,17 +1804,17 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1357,14 +1829,14 @@
         <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1386,51 +1858,49 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9">
+        <v>53</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>54</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>58</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1442,17 +1912,17 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1464,503 +1934,499 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>65</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>81.88</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>81.88</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="3"/>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>9</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="3"/>
+      <c r="G29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>83</v>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="G33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>11</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>13</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
         <v>5</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -1969,126 +2435,128 @@
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>6</v>
+      <c r="E38" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>9</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>16</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>17</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -2097,292 +2565,384 @@
         <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>18</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>19</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>19</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>18</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>19</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="3"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>19</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>20</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>20</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>20</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>19</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>21</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>57</v>
+      <c r="F53" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="F54" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>20</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>21</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>22</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>23</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H55"/>
+  <autoFilter ref="A1:H59">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Проверки 1 1 в.3.xlsx
+++ b/Проверки 1 1 в.3.xlsx
@@ -10,14 +10,14 @@
     <sheet name="форма 1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'форма 1.1'!$A$1:$H$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'форма 1.1'!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
   <si>
     <t>Графа</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Для равновесных радионуклидов (радионуклиды приведены в НП-067-16 приложении 2 и помечены &lt;*&gt;) считается по радионуклиду, который в основной таблице. Если ниже МЗА, то сообщение «Активность ниже МЗА, ЗРИ не является объектом учета СГУК РВ и РАО»</t>
-  </si>
-  <si>
-    <t>&gt;10Е+20 Бк</t>
   </si>
   <si>
     <t>«Проверьте правильность предоставления сведений по суммарной активности»</t>
@@ -270,9 +267,6 @@
     <t>Цифры и нижнее подчеркивание. Длина значения 8 или 14 символов</t>
   </si>
   <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
     <t>Выбор из справочника ОКСМ</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>Код ОКПО отчитывающейся организации</t>
   </si>
   <si>
-    <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39, 54, 63, 64, 66</t>
-  </si>
-  <si>
     <t>цифры и нижнее подчеркивание (длина 8 или 14 символов)</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>ОКПО перевозчика</t>
   </si>
   <si>
-    <t>Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, 76, 97, 98</t>
-  </si>
-  <si>
     <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, -</t>
   </si>
   <si>
@@ -578,9 +566,162 @@
     </r>
   </si>
   <si>
-    <t>Из возможных значений. При коде операции 11 должено быть 9.</t>
-  </si>
-  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Код операции не может быть использован в форме 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В графе 19 код ОКПО отчитывающейся организации. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Радионуклиды должны быть разделены точкой с запятой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа должна быть заполнена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если несколько - разделение через точку с запятой</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>«Укажите количество ЗРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 10 ОКПО отчитывающейся организации</t>
+  </si>
+  <si>
+    <r>
+      <t>Код операции 11,</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -590,6 +731,355 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> 58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО организации изготовителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
+  </si>
+  <si>
+    <t>Код ОКПО НЕ отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>выбор из ОКСМ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо добавить примечание»</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t>11, 12, 15, 28, 38, 41, 48, 63, 64, 65, 73, 85, 81, 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
+  </si>
+  <si>
+    <t>"Уточните правообладателя ЗРИ"</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;10Е+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Бк</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -600,7 +1090,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, 48, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
     </r>
     <r>
       <rPr>
@@ -616,10 +1127,256 @@
   </si>
   <si>
     <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Из возможных значений. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При коде операции 11 должено быть 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ц</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 97, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, 2, 3, 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в графе 14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
@@ -627,7 +1384,56 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Код операции не может быть использован в форме 1.1</t>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
     </r>
     <r>
       <rPr>
@@ -641,502 +1447,94 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">В графе 19 код ОКПО отчитывающейся организации. </t>
-  </si>
-  <si>
-    <t>«В графе 19 необходимо указать код ОКПО своей организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если зарядка/разрядка осуществлялась силами организации, следует использовать код операции 53</t>
-    </r>
-    <r>
-      <rPr>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа не может быть пустой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Радионуклиды должны быть разделены точкой с запятой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа должна быть заполнена</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Если несколько - разделение через точку с запятой</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>«Укажите количество ЗРИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>В графе 10 ОКПО отчитывающейся организации</t>
-  </si>
-  <si>
-    <r>
-      <t>Код операции 11,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 58</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО организации изготовителя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
-  </si>
-  <si>
-    <t>Код ОКПО НЕ отчитывающейся организации</t>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
-  </si>
-  <si>
-    <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>выбор из ОКСМ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо добавить примечание»</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t>11, 12, 15, 28, 38, 41, 48, 63, 64, 65, 73, 85, 81, 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
-  </si>
-  <si>
-    <t>"Уточните правообладателя ЗРИ"</t>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>"прим.". Обязательно примечание к ячейке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1215,6 +1613,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1263,12 +1703,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,25 +1717,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1614,11 +2063,11 @@
   <sheetPr codeName="Лист1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +2109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1677,8 +2126,8 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
+      <c r="G2" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1692,19 +2141,19 @@
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>126</v>
+      <c r="D3" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1748,7 +2197,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1770,7 +2219,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1804,7 +2253,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>33</v>
@@ -1814,7 +2263,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1859,7 +2308,9 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1871,10 +2322,10 @@
         <v>53</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1896,11 +2347,11 @@
         <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1915,14 +2366,14 @@
         <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1966,7 +2417,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -1988,7 +2439,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2000,7 +2451,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>31</v>
@@ -2011,20 +2462,22 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2085,10 +2538,10 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2107,7 +2560,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>56</v>
@@ -2129,7 +2582,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>57</v>
@@ -2151,10 +2604,10 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -2171,10 +2624,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2194,7 +2647,7 @@
         <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2206,12 +2659,12 @@
         <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>59</v>
@@ -2226,12 +2679,12 @@
         <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>59</v>
@@ -2246,7 +2699,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2266,17 +2719,17 @@
         <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -2285,20 +2738,20 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -2307,42 +2760,42 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -2351,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
@@ -2359,10 +2812,10 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -2371,40 +2824,40 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2413,86 +2866,86 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>15</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>140</v>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>14</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>142</v>
+      <c r="G39" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>15</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="A40" s="8">
+        <v>14</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>9</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -2501,443 +2954,535 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>9</v>
+      <c r="E41" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>5</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <v>6</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <v>9</v>
+      </c>
       <c r="F44" s="3" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>18</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>19</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>19</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>19</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>19</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="G52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>19</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B53" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="D53" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="8">
+        <v>66</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>19</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>19</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>20</v>
-      </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>19</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>20</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="F56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>19</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="D57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>21</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>131</v>
+      <c r="F57" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="F58" s="3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F59" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>22</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>23</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H59">
+  <autoFilter ref="A1:H63">
     <filterColumn colId="1">
       <colorFilter dxfId="0"/>
     </filterColumn>
